--- a/biology/Zoologie/Chauve-souris_mexicaine_à_queue_libre/Chauve-souris_mexicaine_à_queue_libre.xlsx
+++ b/biology/Zoologie/Chauve-souris_mexicaine_à_queue_libre/Chauve-souris_mexicaine_à_queue_libre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chauve-souris_mexicaine_%C3%A0_queue_libre</t>
+          <t>Chauve-souris_mexicaine_à_queue_libre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Choeronycteris mexicana
-La Chauve-souris mexicaine à queue libre (Choeronycteris mexicana) ou Choéronyctère du Mexique[1] est une espèce de chauve-souris de la famille des Phyllostomidae présente au Salvador, au Guatemala, en Honduras, au Mexique et aux États-Unis (Sud de la Californie, du Nouveau-Mexique et de l'Arizona). Il s'agit de la seule espèce du genre Choeronycteris.
+La Chauve-souris mexicaine à queue libre (Choeronycteris mexicana) ou Choéronyctère du Mexique est une espèce de chauve-souris de la famille des Phyllostomidae présente au Salvador, au Guatemala, en Honduras, au Mexique et aux États-Unis (Sud de la Californie, du Nouveau-Mexique et de l'Arizona). Il s'agit de la seule espèce du genre Choeronycteris.
 Elle se nourrit du nectar et du pollen des fleurs d'Agaves ou d'autres plantes comme celles des cactus. Sa langue peut atteindre un tiers de la longueur de son corps ce qui lui permet d'atteindre facilement le nectar au fond des fleurs d'agaves et de cactus. Elle apprécie également le contenu des distributeurs à nectar placés par l'Homme à l'attention des colibris.
 </t>
         </is>
